--- a/Source/Japanese_city_car_source/citycar/citycar.xlsx
+++ b/Source/Japanese_city_car_source/citycar/citycar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anok1\Documents\GitHub\simutrans-extended_Japansese_city_car\Source\Japanese_city_car_source\citycar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300F0E0-27DB-4DC9-9889-E85451B09BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,598 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
+  <si>
+    <t>datname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paksize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distributionweight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intro_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intro_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retire_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retire_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入年</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入月</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引退年</t>
+    <rPh sb="0" eb="2">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引退月</t>
+    <rPh sb="0" eb="2">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1--12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>way,vehicle…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#説明</t>
+    <rPh sb="1" eb="3">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[S]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[E]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[W]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[NE]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[NW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[SE]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image[SW]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>citycar/dat/Japansese_city_car.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ooboke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_century_cc</t>
+  </si>
+  <si>
+    <t>OBK_MAZDA_Bongo_Friendee_cc</t>
+  </si>
+  <si>
+    <t>OBK_SUBARU_impreza_cc</t>
+  </si>
+  <si>
+    <t>OBK_Ferrari_F512M_cc</t>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_pablica_cc</t>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_pablica_late_cc</t>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_pablica_pu1_cc</t>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_pablica_pu2_cc</t>
+  </si>
+  <si>
+    <t>OBK_TOYOTA_liteace_cc</t>
+  </si>
+  <si>
+    <t>#OBK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pngfile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../images/OBKcars001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OBK_bon_truck02</t>
+  </si>
+  <si>
+    <t>8.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccswh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccsgr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccsbr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccsrd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccmwh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccmrd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccvwh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccvgr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccw4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKB_ccw5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../images/OBKcars02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#citycar/dat/Japansese_city_car.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>citycar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +639,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +923,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1967</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>130</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1992</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>315</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1994</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1978</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1978</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1964</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1978</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1964</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1978</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>1996</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1955</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1985</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1951</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1951</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1951</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1951</v>
+      </c>
+      <c r="L18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>120</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>1951</v>
+      </c>
+      <c r="L19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>1951</v>
+      </c>
+      <c r="L20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>1951</v>
+      </c>
+      <c r="L21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>1951</v>
+      </c>
+      <c r="L22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>1951</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>1951</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/Japanese_city_car_source/citycar/citycar.xlsx
+++ b/Source/Japanese_city_car_source/citycar/citycar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anok1\Documents\GitHub\simutrans-extended_Japansese_city_car\Source\Japanese_city_car_source\citycar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300F0E0-27DB-4DC9-9889-E85451B09BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B918A4A-10DE-4BBA-8768-990F67EAE758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
   <si>
     <t>datname</t>
     <phoneticPr fontId="1"/>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>../images/OBKcars02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#citycar/dat/Japansese_city_car.dat</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -589,6 +585,24 @@
   </si>
   <si>
     <t>citycar</t>
+  </si>
+  <si>
+    <t>../images/brius</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Harucarro</t>
+  </si>
+  <si>
+    <t>TODOYA-Brius-1</t>
+  </si>
+  <si>
+    <t>TODOYA-Brius-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../images/OBKcars002</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -924,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -948,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1061,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1114,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1167,7 +1181,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1220,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -1273,7 +1287,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -1326,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1379,7 +1393,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1438,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -1497,7 +1511,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1550,7 +1564,7 @@
         <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1603,13 +1617,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1624,7 +1638,7 @@
         <v>1951</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>42</v>
@@ -1653,13 +1667,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1674,7 +1688,7 @@
         <v>1951</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>50</v>
@@ -1703,13 +1717,13 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1724,7 +1738,7 @@
         <v>1951</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>65</v>
@@ -1753,13 +1767,13 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -1774,7 +1788,7 @@
         <v>1951</v>
       </c>
       <c r="L18" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>66</v>
@@ -1803,13 +1817,13 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -1824,7 +1838,7 @@
         <v>1951</v>
       </c>
       <c r="L19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>74</v>
@@ -1853,13 +1867,13 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -1874,7 +1888,7 @@
         <v>1951</v>
       </c>
       <c r="L20" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>82</v>
@@ -1903,13 +1917,13 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1924,7 +1938,7 @@
         <v>1951</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>90</v>
@@ -1953,13 +1967,13 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -1974,7 +1988,7 @@
         <v>1951</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>98</v>
@@ -2003,13 +2017,13 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -2024,7 +2038,7 @@
         <v>1951</v>
       </c>
       <c r="L23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>107</v>
@@ -2053,13 +2067,13 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -2074,31 +2088,137 @@
         <v>1951</v>
       </c>
       <c r="L24" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>134</v>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26">
+        <v>135</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>2011</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27">
+        <v>130</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>2011</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Japanese_city_car_source/citycar/citycar.xlsx
+++ b/Source/Japanese_city_car_source/citycar/citycar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anok1\Documents\GitHub\simutrans-extended_Japansese_city_car\Source\Japanese_city_car_source\citycar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B918A4A-10DE-4BBA-8768-990F67EAE758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F915A9-4D3E-4B1D-BBF0-FA36FC4C1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="197">
   <si>
     <t>datname</t>
     <phoneticPr fontId="1"/>
@@ -603,6 +603,186 @@
   <si>
     <t>../images/OBKcars002</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_ALPHARD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.6;-12.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_ALPHARD</t>
+  </si>
+  <si>
+    <t>kouketsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_LEAF(2nd)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_ROADSTER</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_WRX-STI</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.6;-12.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.6;-12.0</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.6;-12.0</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_CoronaPremio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_CoronaPremio</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_CX-5</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_eK-WAGON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_MOVE-CANBUS</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_Fit(4th)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_Forester(5th)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_Tanto</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_SWIFT(4th)</t>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_Fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_HIJET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_HIJET(10th)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_HIACE(5th)-commuter</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_ELF(6th)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_QuickDelivery(3rd)</t>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_PAJERO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_PAJERO(2nd)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_CARAVAN(5th)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_SIENTA(2nd)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_DUTRO</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_wagonR</t>
+  </si>
+  <si>
+    <t>../images/Hanabusa_citycar_wagonR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_Stepwgn</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_PRIUS(2nd)</t>
+  </si>
+  <si>
+    <t>Hanabusa_citycar_SERENA</t>
   </si>
 </sst>
 </file>
@@ -938,10 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2221,6 +2402,1278 @@
         <v>57</v>
       </c>
     </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2002</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>2017</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31">
+        <v>110</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1989</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32">
+        <v>120</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2014</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1996</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2012</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>2001</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>172</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2016</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>172</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2020</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38">
+        <v>110</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2018</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>181</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39">
+        <v>90</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>2003</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>181</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2017</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>2001</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2004</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>2006</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1999</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
+        <v>182</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1991</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2012</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47">
+        <v>90</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>2015</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48">
+        <v>90</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1999</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49">
+        <v>90</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>1993</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="L49" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1996</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="L50" t="s">
+        <v>193</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51">
+        <v>110</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>2003</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="L51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>1991</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>193</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
